--- a/main/ig/StructureDefinition-fr-core-organization-discipline-equipement.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-discipline-equipement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T10:29:57+00:00</t>
+    <t>2026-01-29T08:32:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-discipline-equipement.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-discipline-equipement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:32:45+00:00</t>
+    <t>2026-01-29T08:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
+    <t>Interop'Santé (http://interopsante.org)</t>
   </si>
   <si>
     <t>InteropSanté (fhir@interopsante.org(Work))</t>
@@ -347,7 +347,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-discipline-equipement|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-discipline-equipement|2.2.0-ballot-2</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -706,7 +706,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="73.2265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.79296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-core-organization-discipline-equipement.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-discipline-equipement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:34:51+00:00</t>
+    <t>2026-01-29T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-discipline-equipement.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-discipline-equipement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:41:18+00:00</t>
+    <t>2026-01-30T10:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
